--- a/GlobalSeminarUSA/AditionalData/selection.xlsx
+++ b/GlobalSeminarUSA/AditionalData/selection.xlsx
@@ -4,24 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="18240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="18240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="scanner" sheetId="1" r:id="rId1"/>
     <sheet name="mechanism" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
+    <sheet name="software" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>Specification</t>
   </si>
@@ -98,193 +93,97 @@
     <t>velocity measurement</t>
   </si>
   <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>140-370</t>
-  </si>
-  <si>
-    <t>120-500</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>piano roll diameter</t>
-  </si>
-  <si>
-    <t>140-200</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
     <t>piano roll core diameter</t>
   </si>
   <si>
-    <t>19.05-88.9</t>
-  </si>
-  <si>
-    <t>12-120</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
     <t>piano roll length</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>&lt; 70</t>
-  </si>
-  <si>
-    <t>&lt; 120</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>&lt; 2000</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>&lt; 50</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>digital file format</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>proprietary / mp3 / MIDI / XML</t>
-  </si>
-  <si>
-    <t>MIDI / XML</t>
-  </si>
-  <si>
-    <t>3c</t>
-  </si>
-  <si>
     <t>perforator error recognition</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&gt; 75</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>dataoutput</t>
-  </si>
-  <si>
-    <t>interfaces</t>
-  </si>
-  <si>
-    <t>CD / floppy / SD-Card / USB</t>
-  </si>
-  <si>
-    <t>USB / Ethernet</t>
-  </si>
-  <si>
-    <t>4f</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>&lt; 5</t>
-  </si>
-  <si>
-    <t>4g</t>
-  </si>
-  <si>
-    <t>number of operators</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>5a, 5b</t>
-  </si>
-  <si>
-    <t>US $</t>
-  </si>
-  <si>
-    <t>&lt; 5000</t>
-  </si>
-  <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>&gt; 300</t>
-  </si>
-  <si>
-    <t>7d</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>20-25</t>
-  </si>
-  <si>
-    <t>7e</t>
-  </si>
-  <si>
-    <t>air humidity</t>
-  </si>
-  <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>30-70</t>
-  </si>
-  <si>
-    <t>7g</t>
-  </si>
-  <si>
-    <t>software extendability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>VAC</t>
-  </si>
-  <si>
-    <t>120…230</t>
-  </si>
-  <si>
-    <t>100…240</t>
+    <t xml:space="preserve">ability for automation </t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>storage roll</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>operating power</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>pneumatic</t>
+  </si>
+  <si>
+    <t>hydraulic</t>
+  </si>
+  <si>
+    <t>human power</t>
+  </si>
+  <si>
+    <t>positioning</t>
+  </si>
+  <si>
+    <t>arrestor</t>
+  </si>
+  <si>
+    <t>middeling</t>
+  </si>
+  <si>
+    <t>handling</t>
+  </si>
+  <si>
+    <t>Lasersensor</t>
+  </si>
+  <si>
+    <t>measuring roll</t>
+  </si>
+  <si>
+    <t>spinnroll and sensor</t>
+  </si>
+  <si>
+    <t>drivenrolls *</t>
+  </si>
+  <si>
+    <t>software needs</t>
+  </si>
+  <si>
+    <t>Pattern recognition</t>
+  </si>
+  <si>
+    <t>Grayscale filter</t>
+  </si>
+  <si>
+    <t>Central moment calculation</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>MIDI</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Binary data</t>
+  </si>
+  <si>
+    <t>digital format</t>
+  </si>
+  <si>
+    <t>Image hole detection algorithm</t>
+  </si>
+  <si>
+    <t>Digital output file format</t>
   </si>
 </sst>
 </file>
@@ -320,9 +219,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -661,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F14"/>
     </sheetView>
   </sheetViews>
@@ -952,124 +856,909 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>330</v>
+      </c>
+      <c r="D12" s="2">
+        <v>310</v>
+      </c>
+      <c r="E12" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B20" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3">
+        <v>310</v>
+      </c>
+      <c r="D26" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B35" s="4">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100</v>
+      </c>
+      <c r="C36" s="4">
+        <v>360</v>
+      </c>
+      <c r="D36" s="4">
+        <v>245</v>
+      </c>
+      <c r="E36" s="4">
+        <v>245</v>
+      </c>
+      <c r="F36" s="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5">
+        <v>25</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="5">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="5">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5">
+        <v>100</v>
+      </c>
+      <c r="C48" s="5">
+        <v>400</v>
+      </c>
+      <c r="D48" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="6">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" s="6">
+        <v>3</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="6">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="6">
+        <v>20</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4</v>
+      </c>
+      <c r="F57" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="6">
+        <v>20</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="6">
+        <v>15</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <f>SUM(B3:B10)</f>
+      <c r="B60" s="6">
         <v>100</v>
       </c>
-      <c r="C11">
-        <f>SUMPRODUCT($B$3:$B$10,C3:C10)</f>
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <f>SUMPRODUCT($B$3:$B$10,D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>SUMPRODUCT($B$3:$B$10,E3:E10)</f>
-        <v>0</v>
+      <c r="C60" s="6">
+        <v>320</v>
+      </c>
+      <c r="D60" s="6">
+        <v>310</v>
+      </c>
+      <c r="E60" s="6">
+        <v>305</v>
+      </c>
+      <c r="F60" s="6">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1079,413 +1768,245 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>2500</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1200</v>
-      </c>
-      <c r="F6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="D8">
+        <v>325</v>
+      </c>
+      <c r="E8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>450</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1">
-        <v>13058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1.5</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
